--- a/user_file/学习笔记.xlsx
+++ b/user_file/学习笔记.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>命令 [参数] [路径文件]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -564,6 +564,10 @@
   </si>
   <si>
     <t>安全测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc需求管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -940,6 +944,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,9 +961,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2238,7 +2242,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2246,27 +2250,27 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="42"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="42"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2649,71 +2653,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>93</v>
       </c>
       <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="44"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="36"/>
       <c r="D2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="36"/>
       <c r="D3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="44"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="36"/>
       <c r="D4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="36"/>
       <c r="D5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="36"/>
       <c r="D6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="44"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="36"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="D8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="44"/>
+      <c r="A9" s="45"/>
       <c r="D9" t="s">
         <v>89</v>
       </c>
@@ -2821,7 +2826,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="42" t="s">
         <v>124</v>
       </c>
       <c r="C32" t="s">
@@ -2844,6 +2849,11 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2871,7 +2881,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45">
+      <c r="A1" s="46">
         <v>1</v>
       </c>
       <c r="B1" s="38" t="s">
@@ -2879,7 +2889,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="6" t="s">
         <v>97</v>
       </c>

--- a/user_file/学习笔记.xlsx
+++ b/user_file/学习笔记.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>命令 [参数] [路径文件]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -567,7 +567,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qc需求管理</t>
+    <t>测试用例编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否满足业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是都满足用户习惯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否满足功能需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取测试点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所测试界面的功能点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如账号输入要求是邮箱/手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足任意需求的有效等价类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效等价类（不满足任一条件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-20个字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户时输入用户名，但不输入密码点击登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入用户密码不输入用户名点击登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名密码均输入，点击登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1897,6 +1997,266 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="左大括号 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="7239000"/>
+          <a:ext cx="142875" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="左大括号 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="8562975"/>
+          <a:ext cx="314325" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="左大括号 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619625" y="8477250"/>
+          <a:ext cx="342900" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="左大括号 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="9448800"/>
+          <a:ext cx="342900" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="左大括号 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="9439275"/>
+          <a:ext cx="1628775" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2653,17 +3013,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -2833,7 +3193,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>120</v>
       </c>
@@ -2841,19 +3201,122 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D51" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E60" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D65" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/user_file/学习笔记.xlsx
+++ b/user_file/学习笔记.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="命令" sheetId="1" r:id="rId1"/>
     <sheet name="符号" sheetId="2" r:id="rId2"/>
     <sheet name="测试" sheetId="3" r:id="rId3"/>
     <sheet name="Git" sheetId="4" r:id="rId4"/>
+    <sheet name="loadrunner" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>命令 [参数] [路径文件]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,6 +669,62 @@
   </si>
   <si>
     <t>用户名密码均输入，点击登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户并发量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与服务器进行交互的在线用户数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求响应时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从客户端发出请求到得到响应的整个时间，包括网络响应时间+服务响应时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞吐率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位时间在网络上传输的数据量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衡量网络性能的指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TPS </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒钟系统能够处理事务的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点记率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒钟发送的HTTP请求的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击率越大对server的压力就越大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源利用率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对不同系统资源的使用程度，比如服务器的CPU，内存等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -957,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1061,6 +1118,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3015,7 +3075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
@@ -3378,4 +3438,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>